--- a/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
+++ b/InputData/trans/VTStFES/Veh Techs Subject to Fuel Econ Std.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\VTStFES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\VTStFES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F4F59E-F82D-4E2F-9F08-E26D29F259B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="25875" windowHeight="10815"/>
+    <workbookView xWindow="21090" yWindow="660" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="VTStFES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>VTStFES Vehicle Technologies Subject to Fuel Economy Standard</t>
   </si>
@@ -58,24 +70,6 @@
     <t>burning internal combustion engines), not battery EVs.</t>
   </si>
   <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
     <t>battery electric vehicle</t>
   </si>
   <si>
@@ -119,12 +113,48 @@
   </si>
   <si>
     <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,6 +292,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +344,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -539,37 +603,37 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -579,49 +643,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="8" width="16.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -647,7 +711,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -673,7 +737,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -699,7 +763,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -725,7 +789,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -751,7 +815,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -772,6 +836,204 @@
         <v>1</v>
       </c>
       <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:H8" si="0">C2</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:H13" si="1">B3</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
